--- a/biology/Botanique/Macrospore/Macrospore.xlsx
+++ b/biology/Botanique/Macrospore/Macrospore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La macrospore (ou mégaspore) est une cellule haploïde issue de la méiose à l'origine du gamétophyte femelle.
-Chez les végétaux, une macrospore (ou mégaspore) haploïde (n) est issue de la méiose d'une cellule mère diploïde (2n), le macrosporocyte (ou mégasporocyte). Cette division cellulaire a lieu dans le sporophyte. Ensuite, chaque macrospore se développe pour donner naissance à un gamétophyte femelle, dont la différenciation varie en fonction du type de végétal [1]:
-chez les Trachéophytes, une exception à la règle existe dans l'hétérosporie: les Sélaginellacées. Elles produisent les gynospores[2].
-chez les Gymnospermes  : c'est un prothalle coenocytique qui constitue l'endosperme[3](prothalle chez les hépatiques à thalles/feuilles et non chez les Gymnospermes, la source est correcte mais la formulation ne l'est pas)
+Chez les végétaux, une macrospore (ou mégaspore) haploïde (n) est issue de la méiose d'une cellule mère diploïde (2n), le macrosporocyte (ou mégasporocyte). Cette division cellulaire a lieu dans le sporophyte. Ensuite, chaque macrospore se développe pour donner naissance à un gamétophyte femelle, dont la différenciation varie en fonction du type de végétal :
+chez les Trachéophytes, une exception à la règle existe dans l'hétérosporie: les Sélaginellacées. Elles produisent les gynospores.
+chez les Gymnospermes  : c'est un prothalle coenocytique qui constitue l'endosperme(prothalle chez les hépatiques à thalles/feuilles et non chez les Gymnospermes, la source est correcte mais la formulation ne l'est pas)
 chez les Angiospermes : c'est le sac embryonnaire
 La macrospore doit son nom au fait qu'elle est généralement plus grande que la spore à potentialité mâle, la microspore.
 L'hétérosporie est aussi présente chez les Sélaginellacées.
